--- a/docs/画面項目定義書/image_management/mo_image_add.xlsx
+++ b/docs/画面項目定義書/image_management/mo_image_add.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\image_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EDE4F-0E3D-4693-88FA-9B6FC3C9CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA2F8E9-12FC-4524-B03A-FC175EE0838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -94,13 +94,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>イメージ管理ダッシュボードへ遷移</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>×ボタン</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -116,16 +109,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>イメージを追加/イメージ管理ダッシュボードへ遷移</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ローカルのファイルを参照しアップロード</t>
     <rPh sb="10" eb="12">
       <t>サンショウ</t>
@@ -161,10 +144,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>mo_image_add</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>mo_image_add.html</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -209,6 +188,24 @@
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージ追加モーダル</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージを追加/image_dashboardへ遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>image_dashboardへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1053,14 +1050,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="5" width="26.08984375" customWidth="1"/>
     <col min="6" max="6" width="40.90625" customWidth="1"/>
@@ -1120,11 +1117,11 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1179,7 +1176,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:7" ht="24">
+    <row r="10" spans="1:7" ht="13">
       <c r="A10" s="24">
         <v>2</v>
       </c>
@@ -1191,11 +1188,11 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13">
@@ -1203,18 +1200,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
@@ -1222,14 +1219,14 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -1239,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24">
@@ -1250,14 +1247,14 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -1270,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
@@ -1278,7 +1275,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
@@ -1286,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13">
